--- a/Erguen_Garzon/RFunctions.xlsx
+++ b/Erguen_Garzon/RFunctions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokce\Documents\GitHub\rbootcamp\Ergün_Garzon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokce\Documents\GitHub\rbootcamp\Erguen_Garzon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE98EE-6A36-4BD4-A3CA-387227A329E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537931D-7581-492E-9477-9068F6BFD0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>methods(plot)</t>
   </si>
@@ -558,6 +558,15 @@
   </si>
   <si>
     <t>KNITR PACKAGE</t>
+  </si>
+  <si>
+    <t>deployApp(location of the app.R)</t>
+  </si>
+  <si>
+    <t>to upload shiny app into a free website</t>
+  </si>
+  <si>
+    <t>{rsconnect}</t>
   </si>
 </sst>
 </file>
@@ -893,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,6 +1694,17 @@
         <v>149</v>
       </c>
     </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A46" r:id="rId1" display="http://127.0.0.1:13341/help/library/patchwork/help/plot_annotation" xr:uid="{A19AA521-A03C-4B52-AA17-40540DFF8D29}"/>
